--- a/YT - Affair dataset with description.xlsx
+++ b/YT - Affair dataset with description.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8d072fc358d5eb0/Desktop/Comp Sci Part 2/Data Analysis/Personal Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8d072fc358d5eb0/Desktop/Comp Sci Part 2/Data Analysis/Personal Projects/Affairs Analysis/Affairs-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_71FC59F268B4BEA8381B8EDF94D8804B025C9C79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A369ECF-98EF-4A91-A19D-3E0D0ADD435A}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_71FC59F268B4BEA8381B8EDF94D8804B025C9C79" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0F5DD84-D1FA-4D5D-A4B2-F5E35BAA1AB9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-22065" windowWidth="33885" windowHeight="18030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$602</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -567,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -22851,6 +22854,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <autoFilter ref="B1:K602" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -22863,7 +22867,9 @@
   </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/YT - Affair dataset with description.xlsx
+++ b/YT - Affair dataset with description.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
